--- a/edu_stats_report2022/data/pairs.xlsx
+++ b/edu_stats_report2022/data/pairs.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -182,9 +182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>f_learning_strategy</t>
-  </si>
-  <si>
     <t>有效人数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -328,14 +325,19 @@
     <t>f_learning_valuable</t>
   </si>
   <si>
-    <t>f_learning_activity_inclass</t>
+    <t>f_knowledge_activity_inclass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_knowledge_strategy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,7 +465,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -537,7 +539,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -572,7 +573,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -748,20 +748,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="48.875" customWidth="1"/>
-    <col min="2" max="2" width="23.375" customWidth="1"/>
+    <col min="1" max="1" width="48.88671875" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -769,7 +769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -777,7 +777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -785,7 +785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -793,7 +793,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -801,7 +801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -809,7 +809,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -817,7 +817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -825,7 +825,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -833,7 +833,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="15" thickBot="1">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -841,7 +841,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="16.2" thickBot="1">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -849,7 +849,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="16.2" thickBot="1">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -857,7 +857,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="16.2" thickBot="1">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -865,7 +865,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="16.2" thickBot="1">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -873,7 +873,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="16.2" thickBot="1">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -881,23 +881,23 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -905,164 +905,164 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>75</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" t="s">
         <v>35</v>
       </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.6">
+      <c r="A27" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.6">
+      <c r="A28" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.6">
+      <c r="A29" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.6">
+      <c r="A30" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.6">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="32" spans="1:2" ht="15.6">
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.6">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.6">
+      <c r="A34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.6">
+      <c r="A35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.6">
+      <c r="A36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.6">
+      <c r="A37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A28" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A29" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A30" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
         <v>41</v>
-      </c>
-      <c r="B38" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1073,12 +1073,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1087,12 +1087,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
